--- a/medicine/Premiers secours et secourisme/The_Call_(film,_2013)/The_Call_(film,_2013).xlsx
+++ b/medicine/Premiers secours et secourisme/The_Call_(film,_2013)/The_Call_(film,_2013).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Call, ou L’Appel au Québec, est un thriller américain de Brad Anderson sorti en 2013.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jordan (Halle Berry), téléopératrice d'un centre d'appel d'urgence de la police municipale de Los Angeles reçoit l'appel d'une jeune fille nommée Casey (Abigail Breslin), enlevée par Michael Foster, un tueur en série (Michael Eklund). Casey est enfermée dans le coffre d'une voiture et, grâce à un téléphone portable, reste en communication avec Jordan qui, n'ayant pas pu sauver Leah, la précédente victime de ce boucher, va tout mettre en œuvre pour retrouver et sauver la captive. Dans sa fuite, Michael Foster tue deux témoins du rapt. 
 Arrivé à destination, Michael Foster sort Casey du coffre et trouve le téléphone dans la poche de Casey, toujours connecté à Jordan. Dans leur conversation, Jordan comprend que Michael a également tué Leah grâce à la même réponse, « C'est déjà fait ». Michael attache Casey à un fauteuil roulant pliable et commence lentement à torturer Casey, la forçant à prendre du protoxyde d'azote. 
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original et français : The Call
 Titre québécois : L’Appel
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Halle Berry (VF : Géraldine Asselin ; VQ : Isabelle Leyrolles) : Jordan Turner
 Abigail Breslin (VF : Lutèce Ragueneau ; VQ : Sarah-Jeanne Labrosse) : Casey Welson
@@ -611,11 +629,11 @@
 Jenna Lamia (VF : Mélanie Martinez) : Brooke, l'apprentie téléopératrice du 911
 Steven Williams : Terrence, l'homme qui appelle régulièrement Jordan (voix)
 Justina Machado (VF : Laurence Mongeaud) : Rachel, l'épouse de Michael Foster
-Version française[1]
+Version française
 Studio de doublage : Dubbing Brothers
 Direction artistique : Jean-Marc Pannetier
 Adaptation : Jean-Marc Pannetier
-Sources et légendes : Version française (VF) sur Voxofilm[2], Allodoublage[3] et RS doublage[4]; Version québécoise (VQ) sur Doublage.qc.ca[5]</t>
+Sources et légendes : Version française (VF) sur Voxofilm, Allodoublage et RS doublage; Version québécoise (VQ) sur Doublage.qc.ca</t>
         </is>
       </c>
     </row>
@@ -643,13 +661,84 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent de la base de données IMDb[6].
-Récompenses
-Leo Awards 2014 : Meilleur acteur dans un second rôle pour Michael Eklund
-Nominations
-40e cérémonie des Saturn Awards 2014 :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent de la base de données IMDb.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Call_(film,_2013)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Call_(film,_2013)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Leo Awards 2014 : Meilleur acteur dans un second rôle pour Michael Eklund</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Call_(film,_2013)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Call_(film,_2013)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>40e cérémonie des Saturn Awards 2014 :
 Meilleur film thriller
 Meilleure actrice pour Halle Berry
 Acapulco Black Film Festival 2014 : Meilleure actrice pour Halle Berry
